--- a/data/static/jaffe_dicts.xlsx
+++ b/data/static/jaffe_dicts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Documents\GitHub\Jaffe_Annotation_Basic\data\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A9FED2-8054-4F9B-A1A9-271A28C7A8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAF6392-47CB-4E93-9BDD-4658ED5F5E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="466">
   <si>
     <t>ANASTASIUS II.</t>
   </si>
@@ -1412,13 +1412,19 @@
   </si>
   <si>
     <t>WIBERTUS, CLEMENS III.</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1433,6 +1439,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1442,7 +1454,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1465,13 +1477,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1779,10 +1808,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C217"/>
+  <dimension ref="A1:E1136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1790,7 +1819,7 @@
     <col min="1" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>311</v>
       </c>
@@ -1800,8 +1829,14 @@
       <c r="C1" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1811,16 +1846,28 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>64</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>65</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1830,24 +1877,42 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>66</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>67</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>68</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1857,56 +1922,98 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>69</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>70</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>71</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>72</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>73</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>74</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>75</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1916,24 +2023,42 @@
       <c r="C14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>76</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>77</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>78</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1943,8 +2068,14 @@
       <c r="C17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>79</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1954,112 +2085,196 @@
       <c r="C18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>80</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>81</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>42</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>82</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>83</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>46</v>
       </c>
       <c r="C22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>84</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>48</v>
       </c>
       <c r="C23" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>85</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>50</v>
       </c>
       <c r="C24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>86</v>
+      </c>
+      <c r="E24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>52</v>
       </c>
       <c r="C25" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>87</v>
+      </c>
+      <c r="E25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>54</v>
       </c>
       <c r="C26" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>88</v>
+      </c>
+      <c r="E26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>56</v>
       </c>
       <c r="C27" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>89</v>
+      </c>
+      <c r="E27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>58</v>
       </c>
       <c r="C28" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>90</v>
+      </c>
+      <c r="E28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>60</v>
       </c>
       <c r="C29" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>91</v>
+      </c>
+      <c r="E29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>62</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>92</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>64</v>
       </c>
       <c r="C31" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>93</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -2069,16 +2284,25 @@
       <c r="C32" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>94</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>69</v>
       </c>
       <c r="C33" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -2088,16 +2312,22 @@
       <c r="C34" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>74</v>
       </c>
       <c r="C35" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -2107,32 +2337,44 @@
       <c r="C36" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>79</v>
       </c>
       <c r="C37" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>81</v>
       </c>
       <c r="C38" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>83</v>
       </c>
       <c r="C39" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -2142,8 +2384,11 @@
       <c r="C40" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -2153,8 +2398,11 @@
       <c r="C41" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -2164,8 +2412,11 @@
       <c r="C42" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>94</v>
       </c>
@@ -2175,72 +2426,99 @@
       <c r="C43" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>97</v>
       </c>
       <c r="C44" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>99</v>
       </c>
       <c r="C45" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>101</v>
       </c>
       <c r="C46" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>103</v>
       </c>
       <c r="C47" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>105</v>
       </c>
       <c r="C48" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>107</v>
       </c>
       <c r="C49" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>109</v>
       </c>
       <c r="C50" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>111</v>
       </c>
       <c r="C51" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>113</v>
       </c>
@@ -2250,8 +2528,11 @@
       <c r="C52" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>116</v>
       </c>
@@ -2261,80 +2542,110 @@
       <c r="C53" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>119</v>
       </c>
       <c r="C54" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>121</v>
       </c>
       <c r="C55" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>123</v>
       </c>
       <c r="C56" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>125</v>
       </c>
       <c r="C57" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D57">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>127</v>
       </c>
       <c r="C58" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D58">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>129</v>
       </c>
       <c r="C59" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>131</v>
       </c>
       <c r="C60" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D60">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>133</v>
       </c>
       <c r="C61" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D61">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>135</v>
       </c>
       <c r="C62" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D62">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>137</v>
       </c>
@@ -2344,16 +2655,22 @@
       <c r="C63" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D63">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>140</v>
       </c>
       <c r="C64" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D64">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>142</v>
       </c>
@@ -2363,24 +2680,33 @@
       <c r="C65" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D65">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>145</v>
       </c>
       <c r="C66" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>147</v>
       </c>
       <c r="C67" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>149</v>
       </c>
@@ -2390,24 +2716,33 @@
       <c r="C68" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>152</v>
       </c>
       <c r="C69" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D69">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>154</v>
       </c>
       <c r="C70" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D70">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>156</v>
       </c>
@@ -2417,8 +2752,11 @@
       <c r="C71" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>159</v>
       </c>
@@ -2428,8 +2766,11 @@
       <c r="C72" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D72">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>162</v>
       </c>
@@ -2439,40 +2780,55 @@
       <c r="C73" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D73">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>165</v>
       </c>
       <c r="C74" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D74">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>167</v>
       </c>
       <c r="C75" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D75">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>169</v>
       </c>
       <c r="C76" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D76">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>171</v>
       </c>
       <c r="C77" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D77">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>173</v>
       </c>
@@ -2482,88 +2838,121 @@
       <c r="C78" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D78">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>176</v>
       </c>
       <c r="C79" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D79">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>178</v>
       </c>
       <c r="C80" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D80">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>180</v>
       </c>
       <c r="C81" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D81">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>182</v>
       </c>
       <c r="C82" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>184</v>
       </c>
       <c r="C83" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D83">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>186</v>
       </c>
       <c r="C84" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>188</v>
       </c>
       <c r="C85" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D85">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>190</v>
       </c>
       <c r="C86" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D86">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>192</v>
       </c>
       <c r="C87" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D87">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>194</v>
       </c>
       <c r="C88" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D88">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>196</v>
       </c>
@@ -2573,24 +2962,33 @@
       <c r="C89" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D89">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>199</v>
       </c>
       <c r="C90" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D90">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>201</v>
       </c>
       <c r="C91" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D91">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>203</v>
       </c>
@@ -2600,8 +2998,11 @@
       <c r="C92" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D92">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>206</v>
       </c>
@@ -2611,32 +3012,44 @@
       <c r="C93" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D93">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>209</v>
       </c>
       <c r="C94" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D94">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>211</v>
       </c>
       <c r="C95" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D95">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>213</v>
       </c>
       <c r="C96" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D96">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>215</v>
       </c>
@@ -2646,24 +3059,33 @@
       <c r="C97" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D97">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>218</v>
       </c>
       <c r="C98" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D98">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>220</v>
       </c>
       <c r="C99" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D99">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>222</v>
       </c>
@@ -2673,16 +3095,22 @@
       <c r="C100" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D100">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>225</v>
       </c>
       <c r="C101" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D101">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>227</v>
       </c>
@@ -2692,8 +3120,11 @@
       <c r="C102" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D102">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>230</v>
       </c>
@@ -2703,16 +3134,22 @@
       <c r="C103" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D103">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>233</v>
       </c>
       <c r="C104" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D104">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>235</v>
       </c>
@@ -2722,8 +3159,11 @@
       <c r="C105" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D105">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>238</v>
       </c>
@@ -2733,8 +3173,11 @@
       <c r="C106" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D106">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>241</v>
       </c>
@@ -2744,8 +3187,11 @@
       <c r="C107" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D107">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>244</v>
       </c>
@@ -2755,8 +3201,11 @@
       <c r="C108" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D108">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>247</v>
       </c>
@@ -2766,40 +3215,55 @@
       <c r="C109" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D109">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>250</v>
       </c>
       <c r="C110" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D110">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>252</v>
       </c>
       <c r="C111" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D111">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>254</v>
       </c>
       <c r="C112" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D112">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>256</v>
       </c>
       <c r="C113" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D113">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>258</v>
       </c>
@@ -2809,16 +3273,22 @@
       <c r="C114" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D114">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>261</v>
       </c>
       <c r="C115" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D115">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>263</v>
       </c>
@@ -2828,32 +3298,44 @@
       <c r="C116" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D116">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>266</v>
       </c>
       <c r="C117" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D117">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>268</v>
       </c>
       <c r="C118" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D118">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>270</v>
       </c>
       <c r="C119" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D119">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>272</v>
       </c>
@@ -2863,8 +3345,11 @@
       <c r="C120" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D120">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>275</v>
       </c>
@@ -2874,8 +3359,11 @@
       <c r="C121" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D121">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>278</v>
       </c>
@@ -2885,8 +3373,11 @@
       <c r="C122" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D122">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>281</v>
       </c>
@@ -2896,32 +3387,44 @@
       <c r="C123" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D123">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>284</v>
       </c>
       <c r="C124" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D124">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>286</v>
       </c>
       <c r="C125" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D125">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>288</v>
       </c>
       <c r="C126" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D126">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>290</v>
       </c>
@@ -2931,8 +3434,11 @@
       <c r="C127" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D127">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>293</v>
       </c>
@@ -2942,48 +3448,66 @@
       <c r="C128" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D128">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>296</v>
       </c>
       <c r="C129" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D129">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>298</v>
       </c>
       <c r="C130" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D130">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>300</v>
       </c>
       <c r="C131" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D131">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>302</v>
       </c>
       <c r="C132" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D132">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>304</v>
       </c>
       <c r="C133" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D133">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>306</v>
       </c>
@@ -2993,16 +3517,22 @@
       <c r="C134" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D134">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>309</v>
       </c>
       <c r="C135" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D135">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>314</v>
       </c>
@@ -3012,8 +3542,11 @@
       <c r="C136" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D136">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>317</v>
       </c>
@@ -3023,32 +3556,44 @@
       <c r="C137" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D137">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>320</v>
       </c>
       <c r="C138" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D138">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>322</v>
       </c>
       <c r="C139" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D139">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>324</v>
       </c>
       <c r="C140" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D140">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>326</v>
       </c>
@@ -3058,32 +3603,44 @@
       <c r="C141" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D141">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>329</v>
       </c>
       <c r="C142" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D142">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>331</v>
       </c>
       <c r="C143" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D143">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>333</v>
       </c>
       <c r="C144" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D144">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>335</v>
       </c>
@@ -3093,8 +3650,11 @@
       <c r="C145" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D145">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>338</v>
       </c>
@@ -3104,72 +3664,99 @@
       <c r="C146" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D146">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>341</v>
       </c>
       <c r="C147" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D147">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>343</v>
       </c>
       <c r="C148" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D148">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>345</v>
       </c>
       <c r="C149" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D149">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>347</v>
       </c>
       <c r="C150" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D150">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>349</v>
       </c>
       <c r="C151" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D151">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>351</v>
       </c>
       <c r="C152" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D152">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>353</v>
       </c>
       <c r="C153" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D153">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>355</v>
       </c>
       <c r="C154" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D154">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>357</v>
       </c>
@@ -3179,40 +3766,55 @@
       <c r="C155" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D155">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>360</v>
       </c>
       <c r="C156" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D156">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>362</v>
       </c>
       <c r="C157" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D157">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>364</v>
       </c>
       <c r="C158" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D158">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>366</v>
       </c>
       <c r="C159" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D159">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>368</v>
       </c>
@@ -3222,8 +3824,11 @@
       <c r="C160" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D160">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>371</v>
       </c>
@@ -3233,32 +3838,44 @@
       <c r="C161" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D161">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>374</v>
       </c>
       <c r="C162" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D162">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>376</v>
       </c>
       <c r="C163" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D163">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>378</v>
       </c>
       <c r="C164" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D164">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>380</v>
       </c>
@@ -3268,8 +3885,11 @@
       <c r="C165" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D165">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>383</v>
       </c>
@@ -3279,8 +3899,11 @@
       <c r="C166" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D166">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>386</v>
       </c>
@@ -3290,32 +3913,44 @@
       <c r="C167" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D167">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>389</v>
       </c>
       <c r="C168" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D168">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>391</v>
       </c>
       <c r="C169" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D169">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>393</v>
       </c>
       <c r="C170" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D170">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>395</v>
       </c>
@@ -3325,298 +3960,5035 @@
       <c r="C171" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D171">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>398</v>
       </c>
       <c r="C172" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D172">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>400</v>
       </c>
       <c r="C173" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D173">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>402</v>
       </c>
       <c r="C174" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D174">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>404</v>
       </c>
       <c r="C175" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D175">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>406</v>
       </c>
       <c r="C176" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D176">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>408</v>
       </c>
       <c r="C177" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D177">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>410</v>
       </c>
       <c r="C178" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D178">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>412</v>
       </c>
       <c r="C179" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D179">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>414</v>
       </c>
       <c r="C180" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D180">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>416</v>
       </c>
       <c r="C181" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D181">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>418</v>
       </c>
       <c r="C182" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D182">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>420</v>
       </c>
       <c r="C183" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D183">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>422</v>
       </c>
       <c r="C184" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D184">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>424</v>
       </c>
       <c r="C185" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D185">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>426</v>
       </c>
       <c r="C186" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D186">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>428</v>
       </c>
       <c r="C187" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D187">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>430</v>
       </c>
       <c r="C188" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D188">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>432</v>
       </c>
       <c r="C189" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D189">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>434</v>
       </c>
       <c r="C190" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D190">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>436</v>
       </c>
       <c r="C191" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D191">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D192">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D193">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D194">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D195">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D196">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D197">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D198">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D199">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D200">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D201">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D202">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D203">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D204">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D205">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D206">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D207">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D208">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D209">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D210">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D211">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D212">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D213">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D214">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D215">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D216">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>463</v>
       </c>
+      <c r="D217">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D218">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D219">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D220">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D221">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D222">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D223">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D224">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="225" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D225">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="226" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D226">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="227" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D227">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="228" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D228">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="229" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D229">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="230" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D230">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="231" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D231">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="232" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D232">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="233" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D233">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="234" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D234">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="235" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D235">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="236" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D236">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="237" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D237">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="238" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D238">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="239" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D239">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="240" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D240">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="241" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D241">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="242" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D242">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="243" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D243">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="244" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D244">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="245" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D245">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="246" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D246">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="247" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D247">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="248" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D248">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="249" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D249">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="250" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D250">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="251" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D251">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="252" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D252">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="253" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D253">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="254" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D254">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="255" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D255">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="256" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D256">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="257" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D257">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="258" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D258">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="259" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D259">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="260" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D260">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="261" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D261">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="262" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D262">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="263" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D263">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="264" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D264">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="265" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D265">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="266" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D266">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="267" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D267">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="268" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D268">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="269" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D269">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="270" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D270">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="271" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D271">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="272" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D272">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="273" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D273">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="274" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D274">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="275" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D275">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="276" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D276">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="277" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D277">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="278" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D278">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="279" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D279">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="280" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D280">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="281" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D281">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="282" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D282">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="283" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D283">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="284" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D284">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="285" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D285">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="286" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D286">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="287" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D287">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="288" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D288">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="289" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D289">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="290" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D290">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="291" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D291">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="292" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D292">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="293" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D293">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="294" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D294">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="295" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D295">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="296" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D296">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="297" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D297">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="298" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D298">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="299" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D299">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="300" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D300">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="301" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D301">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="302" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D302">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="303" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D303">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="304" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D304">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="305" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D305">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="306" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D306">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="307" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D307">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="308" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D308">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="309" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D309">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="310" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D310">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="311" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D311">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="312" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D312">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="313" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D313">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="314" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D314">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="315" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D315">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="316" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D316">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="317" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D317">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="318" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D318">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="319" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D319">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="320" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D320">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="321" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D321">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="322" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D322">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="323" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D323">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="324" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D324">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="325" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D325">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="326" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D326">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="327" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D327">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="328" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D328">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="329" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D329">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="330" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D330">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="331" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D331">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="332" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D332">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="333" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D333">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="334" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D334">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="335" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D335">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="336" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D336">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="337" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D337">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="338" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D338">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="339" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D339">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="340" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D340">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="341" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D341">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="342" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D342">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="343" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D343">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="344" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D344">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="345" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D345">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="346" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D346">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="347" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D347">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="348" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D348">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="349" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D349">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="350" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D350">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="351" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D351">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="352" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D352">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="353" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D353">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="354" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D354">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="355" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D355">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="356" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D356">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="357" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D357">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="358" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D358">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="359" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D359">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="360" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D360">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="361" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D361">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="362" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D362">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="363" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D363">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="364" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D364">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="365" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D365">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="366" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D366">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="367" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D367">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="368" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D368">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="369" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D369">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="370" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D370">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="371" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D371">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="372" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D372">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="373" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D373">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="374" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D374">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="375" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D375">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="376" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D376">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="377" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D377">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="378" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D378">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="379" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D379">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="380" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D380">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="381" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D381">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="382" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D382">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="383" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D383">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="384" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D384">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="385" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D385">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="386" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D386">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="387" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D387">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="388" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D388">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="389" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D389">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="390" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D390">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="391" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D391">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="392" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D392">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="393" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D393">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="394" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D394">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="395" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D395">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="396" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D396">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="397" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D397">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="398" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D398">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="399" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D399">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="400" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D400">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="401" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D401">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="402" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D402">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="403" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D403">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="404" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D404">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="405" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D405">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="406" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D406">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="407" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D407">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="408" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D408">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="409" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D409">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="410" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D410">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="411" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D411">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="412" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D412">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="413" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D413">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="414" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D414">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="415" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D415">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="416" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D416">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="417" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D417">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="418" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D418">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="419" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D419">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="420" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D420">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="421" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D421">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="422" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D422">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="423" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D423">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="424" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D424">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="425" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D425">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="426" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D426">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="427" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D427">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="428" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D428">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="429" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D429">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="430" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D430">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="431" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D431">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="432" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D432">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="433" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D433">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="434" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D434">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="435" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D435">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="436" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D436">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="437" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D437">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="438" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D438">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="439" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D439">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="440" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D440">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="441" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D441">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="442" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D442">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="443" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D443">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="444" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D444">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="445" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D445">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="446" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D446">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="447" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D447">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="448" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D448">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="449" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D449">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="450" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D450">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="451" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D451">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="452" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D452">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="453" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D453">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="454" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D454">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="455" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D455">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="456" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D456">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="457" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D457">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="458" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D458">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="459" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D459">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="460" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D460">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="461" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D461">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="462" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D462">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="463" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D463">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="464" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D464">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="465" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D465">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="466" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D466">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="467" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D467">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="468" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D468">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="469" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D469">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="470" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D470">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="471" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D471">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="472" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D472">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="473" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D473">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="474" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D474">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="475" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D475">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="476" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D476">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="477" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D477">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="478" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D478">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="479" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D479">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="480" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D480">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="481" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D481">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="482" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D482">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="483" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D483">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="484" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D484">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="485" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D485">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="486" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D486">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="487" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D487">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="488" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D488">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="489" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D489">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="490" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D490">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="491" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D491">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="492" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D492">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="493" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D493">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="494" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D494">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="495" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D495">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="496" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D496">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="497" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D497">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="498" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D498">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="499" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D499">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="500" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D500">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="501" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D501">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="502" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D502">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="503" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D503">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="504" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D504">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="505" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D505">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="506" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D506">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="507" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D507">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="508" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D508">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="509" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D509">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="510" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D510">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="511" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D511">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="512" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D512">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="513" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D513">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="514" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D514">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="515" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D515">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="516" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D516">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="517" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D517">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="518" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D518">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="519" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D519">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="520" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D520">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="521" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D521">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="522" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D522">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="523" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D523">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="524" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D524">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="525" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D525">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="526" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D526">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="527" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D527">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="528" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D528">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="529" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D529">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="530" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D530">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="531" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D531">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="532" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D532">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="533" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D533">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="534" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D534">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="535" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D535">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="536" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D536">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="537" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D537">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="538" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D538">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="539" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D539">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="540" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D540">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="541" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D541">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="542" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D542">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="543" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D543">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="544" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D544">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="545" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D545">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="546" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D546">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="547" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D547">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="548" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D548">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="549" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D549">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="550" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D550">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="551" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D551">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="552" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D552">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="553" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D553">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="554" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D554">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="555" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D555">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="556" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D556">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="557" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D557">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="558" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D558">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="559" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D559">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="560" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D560">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="561" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D561">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="562" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D562">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="563" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D563">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="564" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D564">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="565" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D565">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="566" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D566">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="567" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D567">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="568" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D568">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="569" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D569">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="570" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D570">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="571" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D571">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="572" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D572">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="573" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D573">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="574" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D574">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="575" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D575">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="576" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D576">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="577" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D577">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="578" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D578">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="579" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D579">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="580" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D580">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="581" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D581">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="582" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D582">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="583" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D583">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="584" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D584">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="585" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D585">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="586" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D586">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="587" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D587">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="588" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D588">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="589" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D589">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="590" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D590">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="591" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D591">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="592" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D592">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="593" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D593">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="594" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D594">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="595" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D595">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="596" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D596">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="597" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D597">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="598" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D598">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="599" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D599">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="600" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D600">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="601" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D601">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="602" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D602">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="603" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D603">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="604" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D604">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="605" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D605">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="606" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D606">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="607" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D607">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="608" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D608">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="609" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D609">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="610" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D610">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="611" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D611">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="612" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D612">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="613" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D613">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="614" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D614">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="615" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D615">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="616" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D616">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="617" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D617">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="618" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D618">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="619" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D619">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="620" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D620">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="621" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D621">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="622" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D622">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="623" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D623">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="624" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D624">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="625" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D625">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="626" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D626">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="627" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D627">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="628" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D628">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="629" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D629">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="630" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D630">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="631" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D631">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="632" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D632">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="633" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D633">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="634" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D634">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="635" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D635">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="636" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D636">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="637" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D637">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="638" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D638">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="639" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D639">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="640" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D640">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="641" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D641">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="642" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D642">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="643" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D643">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="644" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D644">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="645" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D645">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="646" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D646">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="647" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D647">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="648" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D648">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="649" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D649">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="650" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D650">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="651" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D651">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="652" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D652">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="653" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D653">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="654" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D654">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="655" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D655">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="656" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D656">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="657" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D657">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="658" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D658">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="659" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D659">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="660" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D660">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="661" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D661">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="662" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D662">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="663" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D663">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="664" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D664">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="665" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D665">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="666" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D666">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="667" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D667">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="668" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D668">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="669" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D669">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="670" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D670">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="671" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D671">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="672" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D672">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="673" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D673">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="674" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D674">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="675" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D675">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="676" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D676">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="677" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D677">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="678" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D678">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="679" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D679">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="680" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D680">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="681" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D681">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="682" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D682">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="683" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D683">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="684" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D684">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="685" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D685">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="686" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D686">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="687" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D687">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="688" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D688">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="689" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D689">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="690" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D690">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="691" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D691">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="692" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D692">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="693" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D693">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="694" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D694">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="695" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D695">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="696" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D696">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="697" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D697">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="698" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D698">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="699" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D699">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="700" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D700">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="701" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D701">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="702" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D702">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="703" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D703">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="704" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D704">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="705" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D705">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="706" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D706">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="707" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D707">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="708" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D708">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="709" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D709">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="710" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D710">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="711" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D711">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="712" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D712">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="713" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D713">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="714" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D714">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="715" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D715">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="716" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D716">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="717" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D717">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="718" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D718">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="719" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D719">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="720" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D720">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="721" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D721">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="722" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D722">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="723" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D723">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="724" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D724">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="725" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D725">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="726" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D726">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="727" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D727">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="728" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D728">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="729" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D729">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="730" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D730">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="731" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D731">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="732" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D732">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="733" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D733">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="734" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D734">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="735" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D735">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="736" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D736">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="737" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D737">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="738" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D738">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="739" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D739">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="740" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D740">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="741" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D741">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="742" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D742">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="743" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D743">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="744" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D744">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="745" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D745">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="746" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D746">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="747" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D747">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="748" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D748">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="749" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D749">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="750" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D750">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="751" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D751">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="752" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D752">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="753" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D753">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="754" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D754">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="755" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D755">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="756" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D756">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="757" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D757">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="758" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D758">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="759" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D759">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="760" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D760">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="761" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D761">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="762" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D762">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="763" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D763">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="764" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D764">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="765" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D765">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="766" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D766">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="767" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D767">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="768" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D768">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="769" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D769">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="770" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D770">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="771" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D771">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="772" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D772">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="773" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D773">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="774" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D774">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="775" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D775">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="776" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D776">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="777" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D777">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="778" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D778">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="779" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D779">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="780" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D780">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="781" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D781">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="782" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D782">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="783" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D783">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="784" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D784">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="785" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D785">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="786" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D786">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="787" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D787">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="788" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D788">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="789" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D789">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="790" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D790">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="791" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D791">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="792" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D792">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="793" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D793">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="794" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D794">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="795" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D795">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="796" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D796">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="797" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D797">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="798" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D798">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="799" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D799">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="800" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D800">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="801" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D801">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="802" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D802">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="803" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D803">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="804" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D804">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="805" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D805">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="806" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D806">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="807" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D807">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="808" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D808">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="809" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D809">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="810" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D810">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="811" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D811">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="812" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D812">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="813" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D813">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="814" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D814">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="815" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D815">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="816" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D816">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="817" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D817">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="818" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D818">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="819" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D819">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="820" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D820">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="821" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D821">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="822" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D822">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="823" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D823">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="824" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D824">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="825" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D825">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="826" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D826">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="827" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D827">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="828" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D828">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="829" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D829">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="830" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D830">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="831" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D831">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="832" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D832">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="833" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D833">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="834" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D834">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="835" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D835">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="836" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D836">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="837" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D837">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="838" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D838">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="839" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D839">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="840" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D840">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="841" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D841">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="842" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D842">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="843" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D843">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="844" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D844">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="845" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D845">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="846" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D846">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="847" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D847">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="848" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D848">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="849" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D849">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="850" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D850">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="851" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D851">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="852" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D852">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="853" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D853">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="854" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D854">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="855" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D855">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="856" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D856">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="857" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D857">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="858" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D858">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="859" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D859">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="860" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D860">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="861" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D861">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="862" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D862">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="863" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D863">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="864" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D864">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="865" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D865">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="866" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D866">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="867" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D867">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="868" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D868">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="869" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D869">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="870" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D870">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="871" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D871">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="872" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D872">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="873" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D873">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="874" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D874">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="875" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D875">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="876" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D876">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="877" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D877">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="878" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D878">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="879" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D879">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="880" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D880">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="881" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D881">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="882" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D882">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="883" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D883">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="884" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D884">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="885" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D885">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="886" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D886">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="887" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D887">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="888" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D888">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="889" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D889">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="890" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D890">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="891" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D891">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="892" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D892">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="893" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D893">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="894" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D894">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="895" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D895">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="896" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D896">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="897" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D897">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="898" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D898">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="899" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D899">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="900" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D900">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="901" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D901">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="902" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D902">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="903" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D903">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="904" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D904">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="905" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D905">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="906" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D906">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="907" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D907">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="908" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D908">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="909" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D909">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="910" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D910">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="911" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D911">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="912" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D912">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="913" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D913">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="914" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D914">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="915" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D915">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="916" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D916">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="917" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D917">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="918" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D918">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="919" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D919">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="920" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D920">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="921" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D921">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="922" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D922">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="923" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D923">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="924" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D924">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="925" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D925">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="926" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D926">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="927" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D927">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="928" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D928">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="929" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D929">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="930" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D930">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="931" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D931">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="932" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D932">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="933" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D933">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="934" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D934">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="935" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D935">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="936" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D936">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="937" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D937">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="938" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D938">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="939" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D939">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="940" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D940">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="941" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D941">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="942" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D942">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="943" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D943">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="944" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D944">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="945" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D945">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="946" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D946">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="947" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D947">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="948" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D948">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="949" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D949">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="950" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D950">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="951" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D951">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="952" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D952">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="953" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D953">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="954" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D954">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="955" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D955">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="956" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D956">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="957" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D957">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="958" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D958">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="959" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D959">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="960" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D960">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="961" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D961">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="962" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D962">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="963" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D963">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="964" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D964">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="965" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D965">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="966" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D966">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="967" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D967">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="968" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D968">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="969" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D969">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="970" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D970">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="971" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D971">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="972" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D972">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="973" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D973">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="974" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D974">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="975" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D975">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="976" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D976">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="977" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D977">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="978" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D978">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="979" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D979">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="980" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D980">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="981" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D981">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="982" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D982">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="983" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D983">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="984" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D984">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="985" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D985">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="986" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D986">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="987" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D987">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="988" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D988">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="989" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D989">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="990" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D990">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="991" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D991">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="992" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D992">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="993" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D993">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="994" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D994">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="995" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D995">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="996" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D996">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="997" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D997">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="998" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D998">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="999" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D999">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="1000" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1000">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="1001" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1001">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="1002" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1002">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="1003" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1003">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="1004" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1004">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1005" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1005">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1006" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1006">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1007" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1007">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1008" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1008">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1009" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1009">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="1010" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1010">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="1011" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1011">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="1012" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1012">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1013" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1013">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="1014" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1014">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="1015" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1015">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="1016" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1016">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="1017" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1017">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="1018" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1018">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="1019" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1019">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="1020" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1020">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1021" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1021">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="1022" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1022">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="1023" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1023">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="1024" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1024">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1025" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1025">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1026" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1026">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1027" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1027">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1028" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1028">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="1029" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1029">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="1030" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1030">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="1031" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1031">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="1032" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1032">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="1033" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1033">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1034" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1034">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="1035" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1035">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="1036" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1036">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="1037" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1037">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="1038" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1038">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="1039" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1039">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1040" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1040">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="1041" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1041">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="1042" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1042">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1043" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1043">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="1044" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1044">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1045" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1045">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1046" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1046">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1047" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1047">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1048" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1048">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1049" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1049">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="1050" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1050">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1051" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1051">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1052" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1052">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="1053" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1053">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="1054" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1054">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1055" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1055">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="1056" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1056">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1057" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1057">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1058" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1058">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1059" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1059">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1060" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1060">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1061" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1061">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="1062" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1062">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1063" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1063">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1064" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1064">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1065" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1065">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="1066" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1066">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="1067" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1067">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="1068" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1068">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1069" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1069">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1070" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1070">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1071" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1071">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1072" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1072">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1073" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1073">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1074" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1074">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1075" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1075">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1076" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1076">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1077" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1077">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1078" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1078">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1079" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1079">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1080" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1080">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1081" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1081">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1082" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1082">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1083" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1083">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1084" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1084">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1085" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1085">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1086" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1086">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1087" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1087">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1088" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1088">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1089" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1089">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1090" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1090">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1091" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1091">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1092" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1092">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1093" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1093">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1094" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1094">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1095" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1095">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1096" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1096">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1097" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1097">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1098" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1098">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1099" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1099">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1100" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1100">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1101" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1101">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1102" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1102">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1103" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1103">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1104" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1104">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1105" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1105">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1106" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1106">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1107" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1107">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1108" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1108">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1109" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1109">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1110" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1110">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1111" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1111">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1112" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1112">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1113" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1113">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1114" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1114">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1115" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1115">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1116" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1116">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1117" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1117">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1118" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1118">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1119" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1119">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1120" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1120">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1121" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1121">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1122" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1122">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1123" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1123">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1124" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1124">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1125" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1125">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1126" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1126">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1127" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1127">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1128" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1128">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1129" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1129">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1130" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1130">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1131" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1131">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1132" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1132">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1133" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1133">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1134" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1134">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1135" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1135">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1136" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1136">
+        <v>1198</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>